--- a/辅助表/战斗数值第2版.xlsx
+++ b/辅助表/战斗数值第2版.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29340" yWindow="680" windowWidth="38400" windowHeight="20140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
-    <sheet name="角色划分" sheetId="2" r:id="rId2"/>
-    <sheet name="数值总概" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId2"/>
+    <sheet name="角色划分" sheetId="2" r:id="rId3"/>
+    <sheet name="数值总概" sheetId="3" r:id="rId4"/>
+    <sheet name="角色技能参考" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="115">
   <si>
     <t>攻击</t>
     <rPh sb="0" eb="1">
@@ -629,6 +631,304 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>dong'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而洗练最好与一个系统相配合</t>
+    <rPh sb="0" eb="1">
+      <t>er</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xi'l</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zui'hao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi'g</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>pei'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者是加次数的</t>
+    <rPh sb="0" eb="1">
+      <t>huo'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>s</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ci'shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主属性加成怎么加？</t>
+    <rPh sb="0" eb="1">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shu'x</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia'cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>z'm</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <rPh sb="0" eb="1">
+      <t>fang'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <rPh sb="0" eb="1">
+      <t>xue'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔攻</t>
+    <rPh sb="0" eb="1">
+      <t>mo'gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔防</t>
+    <rPh sb="0" eb="1">
+      <t>mo'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击应当有</t>
+    <rPh sb="0" eb="1">
+      <t>gong'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'd</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力去掉</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu'diao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改战斗公式会怎么样？</t>
+    <rPh sb="0" eb="1">
+      <t>geng'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhan'd</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong's</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>z'm</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 天妒【法术】对敌方横排造成60%~80%攻击伤害</t>
+  </si>
+  <si>
+    <t> 遗计惊虹【法术】对敌方横排造成131%~151%攻击伤害,60%概率附加眩晕1回合（眩晕状态下无法行动）</t>
+  </si>
+  <si>
+    <t>夜思奉孝： 曹操、郭嘉同时上场，生命+29%</t>
+  </si>
+  <si>
+    <t>鬼惊神惧： 甄姬、郭嘉同时上场，生命+27%</t>
+  </si>
+  <si>
+    <t>鬼神莫测： 郭嘉、夏侯惇、徐晃同时上场，攻击+33%</t>
+  </si>
+  <si>
+    <t>绝影无影： 装备战马绝影，生命+25%</t>
+  </si>
+  <si>
+    <t>孟德之志： 装备兵书孟德新书，攻击+25%</t>
+  </si>
+  <si>
+    <t>力战2 进阶+2 攻击+100</t>
+  </si>
+  <si>
+    <t>暴击2 进阶+3 暴击率+10%</t>
+  </si>
+  <si>
+    <t>闪避4 进阶+4 闪避率+12%</t>
+  </si>
+  <si>
+    <t>气势3 进阶+5 初始怒气+3（第一回合就可施放怒气技能）</t>
+  </si>
+  <si>
+    <t>天妒 进阶+6 死亡时对敌方全体造成150%的攻击伤害，30%概率眩晕1回合</t>
+  </si>
+  <si>
+    <t>金汤8 进阶+7 被攻击时，如果自身生命高于攻击者，受到的伤害减少40%</t>
+  </si>
+  <si>
+    <t> 武圣【物理】对敌方横排造成60%~80%攻击伤害</t>
+  </si>
+  <si>
+    <t> 青龙偃月斩【物理】对敌方单体造成340%~360%攻击伤害，增加自身格挡几率30%，持续2回合</t>
+  </si>
+  <si>
+    <t>刮骨疗伤： 关羽,华佗同时上场,生命+29%</t>
+  </si>
+  <si>
+    <t>武神附体： 关羽,魏延同时上场,攻击+24%</t>
+  </si>
+  <si>
+    <t>五虎上将： 关羽,张飞,赵云,马超,黄忠同时上场,攻击+32%，生命+32%</t>
+  </si>
+  <si>
+    <t>马中赤兔： 装备战马赤兔攻击+25%</t>
+  </si>
+  <si>
+    <t>毫色如常： 装备兵书青囊书生命+25%</t>
+  </si>
+  <si>
+    <t>横扫4 进阶+4 格挡率+10%，格挡反击时反击目标所处的横排敌人</t>
+  </si>
+  <si>
+    <t>武圣 进阶+6 免疫【封怒】【封技】效果，受到物理伤害减少15%</t>
+  </si>
+  <si>
+    <t>诛杀8 进阶+7 击杀目标时回复自身40%生命</t>
+  </si>
+  <si>
+    <t> 急救【法术】对血量最少的武将回复生命</t>
+  </si>
+  <si>
+    <t> 青囊神术【法术】为己方全体回复生命</t>
+  </si>
+  <si>
+    <t>刮骨疗伤： 华佗、关羽同时上场，生命+29%</t>
+  </si>
+  <si>
+    <t>神农百草： 华佗、贾诩同时上场，生命+29%</t>
+  </si>
+  <si>
+    <t>钻研医术： 华佗、甄姬、姜维同时上场，防御+42%</t>
+  </si>
+  <si>
+    <t>霹雳弦惊： 装备战马的卢，生命+25%</t>
+  </si>
+  <si>
+    <t>悬壶济世： 装备兵书青囊书，攻击+25%</t>
+  </si>
+  <si>
+    <t>强袭2 进阶+2 最终受到的伤害减少200</t>
+  </si>
+  <si>
+    <t>闪避2 进阶+3 闪避率+6%</t>
+  </si>
+  <si>
+    <t>虚无4 进阶+4 受到法术攻击时减少12%伤害</t>
+  </si>
+  <si>
+    <t>抗魏6 进阶+6 受到魏国武将的伤害减少30%</t>
+  </si>
+  <si>
+    <t>铁壁8 进阶+7 受到物理攻击时减少24%伤害</t>
+  </si>
+  <si>
+    <t> 仁德【法术】对敌方直线造成70%~90%攻击伤害</t>
+  </si>
+  <si>
+    <t> 仁者为王【法术】对敌方单体造成310%~330%攻击伤害，为己方血最少的武将回复血量且增加2点怒气</t>
+  </si>
+  <si>
+    <t>娶我可好： 刘备、孙尚香同时上场，攻击+23%</t>
+  </si>
+  <si>
+    <t>雄才大略： 刘备、法正同时上场，生命+26%</t>
+  </si>
+  <si>
+    <t>桃园结义： 刘备、关羽、张飞同时上场，攻击+33%</t>
+  </si>
+  <si>
+    <t>马跃檀溪： 装备战马的卢，生命+22%</t>
+  </si>
+  <si>
+    <t>因果循环： 装备兵书易经，防御+22%</t>
+  </si>
+  <si>
+    <t>霸者2 进阶+2 最终造成伤害增加200</t>
+  </si>
+  <si>
+    <t>警戒2 进阶+3 上场第1、2次受到的伤害减少20%，且永久不受【暗杀】效果影响</t>
+  </si>
+  <si>
+    <t>仁德 进阶+6 【光环效果】在场上时，增加己方蜀国武将15%伤害</t>
+  </si>
+  <si>
+    <t>妙手8 进阶+7 普通攻击时造成的伤害有120%可转化为己方血最少的武将的生命</t>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <rPh sb="0" eb="1">
+      <t>min'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <rPh sb="0" eb="1">
+      <t>hu'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意志</t>
+    <rPh sb="0" eb="1">
+      <t>yi'zhi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -637,7 +937,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -648,6 +948,18 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -686,10 +998,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -967,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J11"/>
+  <dimension ref="B2:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -980,31 +1294,51 @@
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
       <c r="I4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
       <c r="I6" t="s">
         <v>2</v>
       </c>
       <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -1015,34 +1349,61 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
       <c r="I8" t="s">
         <v>4</v>
       </c>
       <c r="J8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="I9" t="s">
         <v>5</v>
       </c>
       <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
       <c r="I10" t="s">
         <v>6</v>
       </c>
       <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1050,7 +1411,23 @@
         <v>7</v>
       </c>
       <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N25" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1061,10 +1438,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1155,7 +1547,7 @@
         <v>133.33333333333334</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" ref="K6:K30" si="1">B6</f>
+        <f t="shared" ref="K6:K8" si="1">B6</f>
         <v>基础战士</v>
       </c>
       <c r="L6">
@@ -1237,6 +1629,11 @@
       <c r="O8">
         <f t="shared" si="2"/>
         <v>2.2222222222222223</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1245,21 +1642,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:M11"/>
+  <dimension ref="C2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1372,6 +1771,241 @@
         <v>55</v>
       </c>
     </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="J14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B28:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="96" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F35" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="D43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F45" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/辅助表/战斗数值第2版.xlsx
+++ b/辅助表/战斗数值第2版.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="36560" yWindow="2900" windowWidth="28800" windowHeight="16540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="116">
   <si>
     <t>攻击</t>
     <rPh sb="0" eb="1">
@@ -930,6 +930,10 @@
     <rPh sb="0" eb="1">
       <t>yi'zhi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,7 +941,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -964,6 +968,10 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
   <fills count="4">
@@ -998,12 +1006,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1646,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -1791,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B28:B33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1853,6 +1862,11 @@
         <v>78</v>
       </c>
     </row>
+    <row r="10" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F10" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>79</v>
